--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_AV-MCPS_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_AV-MCPS_Lineal_No_Estacionario_ARIMA.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>1.803763680707633</v>
+        <v>4.211710889606181</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>2.579992484281206</v>
+        <v>2.722177374476466</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>2.142119824503511</v>
+        <v>3.682333685301644</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>1.996460299414523</v>
+        <v>3.136203918568333</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>2.270159067680547</v>
+        <v>2.702922312761013</v>
       </c>
     </row>
   </sheetData>
